--- a/biology/Zoologie/Criquet_nomade/Criquet_nomade.xlsx
+++ b/biology/Zoologie/Criquet_nomade/Criquet_nomade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nomadacris septemfasciata
-Nomadacris septemfasciata, le criquet nomade ou criquet rouge, est une espèce de criquets de la famille des Acrididae, la seule du genre Nomadacris[1].
+Nomadacris septemfasciata, le criquet nomade ou criquet rouge, est une espèce de criquets de la famille des Acrididae, la seule du genre Nomadacris.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Taille des ailés mâles : 6 à 7 cm.
 Taille des ailés femelles : 6 à 8,5 cm.</t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criquet nomade a un cycle biologique univoltin (voir figure ci-dessous). Il développe une génération par an avec une diapause imaginale pendant la saison sèche (Frappa 1935). On peut opposer deux périodes fondamentales : la diapause imaginale en saison sèche, et la reproduction en saison des pluies.
 La diapause est un arrêt régulier obligatoire du développement d’un insecte (Danks 1987). C’est une stratégie permettant à l’espèce de survivre pendant la période la plus défavorable du cycle (Denlinger 1986). La diapause imaginale maintient les imagos à l’état immature pendant toute la saison sèche, elle se traduit par le blocage du développement ovarien des femelles. L’induction de la diapause est liée à la photopériode (diminution de la durée du jour entre mars et juillet (Norris 1965). La diapause est levée par une combinaison d’autres facteurs : passage par des températures fraîches en août, remontée des températures en septembre, arrivée des premières pluies entre octobre et novembre (Robertson 1958).
@@ -581,7 +597,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criquet nomade a un comportement semi-arboricole. Il privilégie les environnements herbacés souvent embroussaillés et denses avec de hautes graminées. En saison sèche, il utilise des perchoirs arbustifs voire arborés.
 </t>
@@ -612,7 +630,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criquet nomade est un ravageur polyphage. Têtefort &amp; Wintrebert (1967) et Faure (1935) notent que les plantes suivantes sont consommées par les solitaires : grandes graminées (maïs, canne à sucre, sorgho), palmiers (Hyphaene shatan, Bismarkia nobilis), bambou, bananier, tabac, les citrus, choux, tomates, laurier rose, manguier, sisal, manioc et euphorbes arbustives…
 </t>
@@ -643,7 +663,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’aire de distribution de Nomadacris septemfasciata est essentiellement sud-africaine (Anonyme (FAO) 1967, Anonyme (COPR) 1982). Elle comprend les régions équatoriales et tropicales situées du Cap de Bonne Espérance jusqu’aux Congo et à la Tanzanie. Lors de la dernière grande invasion dans les années 1940, des vols remontèrent au-delà de l’équateur jusqu’en Éthiopie, à l’est, et les bords du lac Tchad à l’ouest. Le manuel du COPR (1982) donne une carte récente de son aire de distribution. Outre l’Afrique au sud de l’équateur et les îles de l’océan Indien, des populations isolées sont également connues dans le bassin du lac Tchad, le delta central du fleuve Niger au Mali ainsi que dans les îles du Cap-Vert.
 </t>
@@ -674,7 +696,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criquet nomade est un acridien méso-hygrophile. Les biotopes des imagos de N. septemfasciata sont généralement des savanes hautes et denses arborées ou buissonneuses (Descamps &amp; Wintrebert 1966, Randrianasolo 1978). La forêt n’est jamais colonisée.
 La durée d’incubation des œufs est relativement longue 20 à 35 jours selon les conditions thermo-hydriques. Par ailleurs, la ponte, au début de la saison des pluies, se déroule dans une période météorologique instable. Le risque majeur vient de l’inondation des œufs en cas de pluies précoces et brutales. D’un autre côté une période de sécheresse pourra nuire au développement embryonnaire, jusqu’à tuer l’embryon. Le choix d’un site de ponte est donc crucial du point de vue de la dynamique des populations puisque c’est l’unique période où une population peut multiplier ses effectifs, sans apport de populations allochtones.
@@ -707,7 +731,9 @@
           <t>Ennemis naturels</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Des acariens rouges, du genre Eutrombidium, peuvent être abondants sur les ailes, mais ont peu de conséquences sur la physiologie du criquet (Anonyme (COPR) 1982).
 Têtefort &amp; Wintrebert (1963, 1967) et Descamps &amp; Wintrebert (1966) soulignent que les larves de Stomorhina lunata (diptère, Calliphoridae), de Mylabris (coléoptère, Tenebrionoidea, Meloidae) et de Scelio howardi et S. zolotarevskyi (hyménoptères, Scelionidae) sont de redoutables prédateurs d’oothèques du criquet nomade. Le parasitisme par les Scelionidae (S. horwardi en particulier), par les acariens et la prédation par des larves de diptères Bombyliidae (Anastoechus sp.) ne contribueraient à la mortalité que de manière anecdotique.
@@ -742,7 +768,9 @@
           <t>Phases</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">[réf. non conforme]
 Jusqu’à 1921, Locusta migratoria et Locusta danica étaient considérés comme deux espèces différentes. Uvarov (1921) a montré qu’il s’agissait de deux formes différentes d’une même espèce : l’une caractérisant les populations grégaires et l’autre les populations solitaires. Le terme de phase est employé par analogie avec les différents états d’une même substance, comme l’eau ou l’air, qui suivent des lois physiques et chimiques différentes. Les différences phasaires chez les acridiens sont profondes : le comportement, la pigmentation, la morphologie, la physiologie et l’anatomie sont affectés. Les changements de phase sont gradués en fonction du choc densitaire subi. Les formes intermédiaires sont appelées transiens. Dans le cas d’une évolution de la forme solitaire vers la forme grégaire, on parle de transiens congregans et dans le cas inverse de transiens dissocians (ou degregans) (Uvarov 1966). En phase solitaire une locuste est inoffensive pour les cultures principalement à cause de la faible densité des populations et d’un choix alimentaire plus restreint que les grégaires qui sont plus euryphages et vivant groupés, causent des ravages sur la végétation. Le criquet nomade est un de ces locustes. Cet acridien est dit « grégariapte ».
@@ -779,7 +807,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>La lutte contre ce criquet est commémorée par une émission de l'Angola de 1963 (valeur faciale : 2,50 $).</t>
         </is>
